--- a/Python/output/case-study/st_SA_WSresults.xlsx
+++ b/Python/output/case-study/st_SA_WSresults.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27715"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/local_ysong3/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yongjis/Documents/GitHub/msp_models_for_adaptive_disaster_relief_logistics_planning/Python/output/case-study/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46DE7A5-E612-7C4D-B06E-497A40495851}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="1360" windowWidth="28100" windowHeight="16700" tabRatio="500"/>
+    <workbookView xWindow="700" yWindow="1360" windowWidth="28100" windowHeight="16700" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trans_SA_WSresults" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -94,6 +95,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -361,11 +365,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -496,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>3256957.74389992</v>
+        <v>3095610.0531339999</v>
       </c>
       <c r="E6">
-        <v>310499.938025482</v>
+        <v>248218.215928625</v>
       </c>
       <c r="F6">
-        <v>431.10643482208201</v>
+        <v>1830.52904510498</v>
       </c>
       <c r="G6">
-        <v>2.2290511131286599</v>
+        <v>2.0340800285339302</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -519,16 +523,16 @@
         <v>2</v>
       </c>
       <c r="D7">
-        <v>3541027.51164205</v>
+        <v>3412983.7048560302</v>
       </c>
       <c r="E7">
-        <v>327592.36932961002</v>
+        <v>228295.97833523899</v>
       </c>
       <c r="F7">
-        <v>371.49459505081097</v>
+        <v>1860.6812698840999</v>
       </c>
       <c r="G7">
-        <v>2.0894749164581299</v>
+        <v>2.1135787963867099</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -542,16 +546,16 @@
         <v>3</v>
       </c>
       <c r="D8">
-        <v>3611548.85800735</v>
+        <v>3573938.62879223</v>
       </c>
       <c r="E8">
-        <v>286413.977117431</v>
+        <v>216894.563305157</v>
       </c>
       <c r="F8">
-        <v>398.72616505622801</v>
+        <v>1760.02389907836</v>
       </c>
       <c r="G8">
-        <v>2.3962328433990399</v>
+        <v>2.1769058704376198</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -565,16 +569,16 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>3773360.1801190199</v>
+        <v>3704718.3364496501</v>
       </c>
       <c r="E9">
-        <v>301189.13585451298</v>
+        <v>176515.84583015999</v>
       </c>
       <c r="F9">
-        <v>372.94663190841601</v>
+        <v>1640.62251782417</v>
       </c>
       <c r="G9">
-        <v>2.3932971954345699</v>
+        <v>2.23310995101928</v>
       </c>
     </row>
   </sheetData>
